--- a/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada.xlsx
+++ b/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/NRCan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CE5BDE3-510A-4B41-9061-30FA882A7839}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2930613-27AC-4A8C-B8E5-C91668657519}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-19836" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="critical_minerals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">critical_minerals!$A$1:$T$271</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3893,8 +3909,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3920,8 +3942,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3937,6 +3960,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4256,10 +4283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4269,69 +4297,69 @@
     <col min="19" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4390,7 +4418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4449,7 +4477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4508,7 +4536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4567,7 +4595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4626,7 +4654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4685,7 +4713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4744,7 +4772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4803,7 +4831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4862,7 +4890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4921,7 +4949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4980,7 +5008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5039,7 +5067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5098,7 +5126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5157,7 +5185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5216,7 +5244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5275,7 +5303,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5334,7 +5362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5393,7 +5421,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5452,7 +5480,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5511,7 +5539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5570,7 +5598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5688,7 +5716,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5747,7 +5775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5806,7 +5834,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5865,7 +5893,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5924,7 +5952,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5983,7 +6011,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6042,7 +6070,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6101,7 +6129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6160,7 +6188,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6219,7 +6247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6278,7 +6306,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6337,7 +6365,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6396,7 +6424,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6455,7 +6483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6514,7 +6542,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6573,7 +6601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6632,7 +6660,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6691,7 +6719,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6750,7 +6778,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6809,7 +6837,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6868,7 +6896,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6927,7 +6955,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6986,7 +7014,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7045,7 +7073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7104,7 +7132,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7163,7 +7191,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7222,7 +7250,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7281,7 +7309,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7340,7 +7368,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7399,7 +7427,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7458,7 +7486,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7517,7 +7545,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9110,7 +9138,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9169,7 +9197,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9228,7 +9256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9287,7 +9315,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9346,7 +9374,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9405,7 +9433,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9464,7 +9492,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9523,7 +9551,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9582,7 +9610,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9641,7 +9669,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9700,7 +9728,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9759,7 +9787,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9818,7 +9846,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9877,7 +9905,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9936,7 +9964,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9995,7 +10023,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10054,7 +10082,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10113,7 +10141,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10172,7 +10200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10231,7 +10259,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10290,7 +10318,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10349,7 +10377,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10408,7 +10436,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10467,7 +10495,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10526,7 +10554,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10585,7 +10613,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10644,7 +10672,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10703,7 +10731,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10762,7 +10790,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10821,7 +10849,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10880,7 +10908,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10939,7 +10967,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10998,7 +11026,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11057,7 +11085,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11116,7 +11144,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11175,7 +11203,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11234,7 +11262,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11293,7 +11321,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11352,7 +11380,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11411,7 +11439,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11470,7 +11498,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11529,7 +11557,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11588,7 +11616,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11647,7 +11675,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11706,7 +11734,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11765,7 +11793,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11824,7 +11852,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11883,7 +11911,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11942,7 +11970,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12001,7 +12029,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12060,7 +12088,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12119,7 +12147,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12178,7 +12206,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12237,7 +12265,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12296,7 +12324,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -12355,7 +12383,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12414,7 +12442,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -12473,7 +12501,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -12532,7 +12560,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12591,7 +12619,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12650,7 +12678,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12709,7 +12737,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12768,7 +12796,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12827,7 +12855,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12886,7 +12914,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -12945,7 +12973,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13004,7 +13032,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13063,7 +13091,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13122,7 +13150,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13181,7 +13209,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13240,7 +13268,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13299,7 +13327,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13358,7 +13386,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13417,7 +13445,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13476,7 +13504,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13535,7 +13563,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13594,7 +13622,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13653,7 +13681,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13712,7 +13740,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13771,7 +13799,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13830,7 +13858,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13889,7 +13917,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13948,7 +13976,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14007,7 +14035,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14066,7 +14094,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14125,7 +14153,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14184,7 +14212,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14243,7 +14271,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14302,7 +14330,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14361,7 +14389,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14420,7 +14448,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14479,7 +14507,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14538,7 +14566,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14597,7 +14625,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14656,7 +14684,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14715,7 +14743,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14774,7 +14802,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14833,7 +14861,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14892,7 +14920,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14951,7 +14979,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15010,7 +15038,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15069,7 +15097,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15128,7 +15156,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15187,7 +15215,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15246,7 +15274,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15305,7 +15333,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15364,7 +15392,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -15423,7 +15451,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -15482,7 +15510,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -15541,7 +15569,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -15600,7 +15628,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15659,7 +15687,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15718,7 +15746,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15777,7 +15805,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15836,7 +15864,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15895,7 +15923,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15954,7 +15982,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16013,7 +16041,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16072,7 +16100,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -16131,7 +16159,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16190,7 +16218,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -16249,7 +16277,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -16308,7 +16336,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -16367,7 +16395,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -16426,7 +16454,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16485,7 +16513,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16544,7 +16572,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -16603,7 +16631,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16662,7 +16690,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -16721,7 +16749,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -16780,7 +16808,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -16839,7 +16867,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -16898,7 +16926,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16957,7 +16985,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -17016,7 +17044,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -17075,7 +17103,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -17134,7 +17162,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -17193,7 +17221,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -17252,7 +17280,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -17311,7 +17339,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17370,7 +17398,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17429,7 +17457,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17488,7 +17516,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -17547,7 +17575,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17606,7 +17634,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -17665,7 +17693,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -17724,7 +17752,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -17783,7 +17811,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -17842,7 +17870,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -17901,7 +17929,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -17960,7 +17988,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -18019,7 +18047,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -18078,7 +18106,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18137,7 +18165,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18196,7 +18224,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18255,7 +18283,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18314,7 +18342,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18373,7 +18401,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18432,7 +18460,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18491,7 +18519,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18550,7 +18578,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18609,7 +18637,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18668,7 +18696,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18727,7 +18755,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18786,7 +18814,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18845,7 +18873,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18904,7 +18932,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18963,7 +18991,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -19022,7 +19050,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -19081,7 +19109,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -19140,7 +19168,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -19199,7 +19227,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -19258,7 +19286,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -19317,7 +19345,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -19376,7 +19404,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -19435,7 +19463,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -19494,7 +19522,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -19553,7 +19581,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -19612,7 +19640,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -19671,7 +19699,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -19730,7 +19758,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -19789,7 +19817,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19848,7 +19876,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19907,7 +19935,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19966,7 +19994,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -20025,7 +20053,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -20084,7 +20112,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -20143,7 +20171,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -20202,7 +20230,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -20262,6 +20290,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T271" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Processing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>